--- a/ExcelSheets/User_Credential.xlsx
+++ b/ExcelSheets/User_Credential.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2310300_cognizant_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2310300\eclipse-workspace\Cognizant_Hackathon_Make_My_Trip\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC104817119A767E5ADE58FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F892353F-0BC5-49C5-8617-6B4F1C1A16EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA1148E-CE5E-4BA1-BA11-22A1228A8B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -39,35 +39,32 @@
     <t>Swapnanil Sengupta</t>
   </si>
   <si>
-    <t>Osman Gani</t>
-  </si>
-  <si>
-    <t>Shardul Kulkarni</t>
-  </si>
-  <si>
-    <t>Vikram Singh</t>
-  </si>
-  <si>
     <t>jdhvcsdhc</t>
-  </si>
-  <si>
-    <t>khjsdckshd</t>
-  </si>
-  <si>
-    <t>ujsyfxsuj</t>
-  </si>
-  <si>
-    <t>uygsusqgyd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,13 +388,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -407,40 +406,7 @@
         <v>8910263618</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <v>9038975068</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>8329955865</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>8869038990</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
